--- a/abc.xlsx
+++ b/abc.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DjangoProject\Django_Excel\search_api\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70EB96A4-718F-447C-9608-E716F48766B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72242FDB-29B7-4016-A9D0-930A067F3E6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,17 +25,6 @@
     <t>Explain the process of setting up a personal budget in 8-10 steps, detailing each step thoroughly</t>
   </si>
   <si>
-    <t>1. Assess your financial situation by gathering all financial information including income, expenses, debts, and savings.
-2. Determine your financial goals, both short-term and long-term.
-3. Calculate your total income from all sources.
-4. Track your expenses by categorizing them into essentials and non-essentials.
-5. Create a budget allocating funds to cover essential expenses while saving towards your goals.
-6. Identify areas where you can reduce expenses to align with your budget.
-7. Regularly monitor your budget to track progress and make adjustments as needed.
-8. Allocate a portion of your income towards savings and investments.
-9. Seek professional advice if needed, especially for complex financial situations.</t>
-  </si>
-  <si>
     <t>https://bungalow.com/articles/how-to-make-a-personal-budget-in-8-easy-steps-plus-tips-for-actually-using</t>
   </si>
   <si>
@@ -64,6 +53,9 @@
   </si>
   <si>
     <t>https://tse2.mm.bing.net/th?id=OIP.dfoZsLqr5C6sRKERVV9R_wHaE8&amp;pid=Api&amp;P=0&amp;h=180</t>
+  </si>
+  <si>
+    <t>1 Assess your financial situation by gathering all financial information including income, expenses, debts, and savings. 2 Determine your financial goals, both short-term and long-term.3 Calculate your total income from all sources.4 Track your expenses by categorizing them into essentials and non-essentials.5 Create a budget allocating funds to cover essential expenses while saving towards your goals.6 Identify areas where you can reduce expenses to align with your budget.7 Regularly monitor your budget to track progress and make adjustments as needed.8 Allocate a portion of your income towards savings and investments.9 Seek professional advice if needed, especially for complex financial situations.</t>
   </si>
 </sst>
 </file>
@@ -408,8 +400,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -422,22 +414,22 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s">
         <v>5</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>6</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>7</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>8</v>
       </c>
-      <c r="E1" t="s">
-        <v>9</v>
-      </c>
     </row>
-    <row r="2" spans="1:5" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -445,13 +437,13 @@
         <v>0</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" t="s">
         <v>1</v>
       </c>
-      <c r="D2" t="s">
-        <v>2</v>
-      </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -459,16 +451,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
         <v>3</v>
       </c>
-      <c r="C3" t="s">
-        <v>4</v>
-      </c>
       <c r="D3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/abc.xlsx
+++ b/abc.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DjangoProject\Django_Excel\search_api\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72242FDB-29B7-4016-A9D0-930A067F3E6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50969357-2F56-462C-BEC9-81336260007D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Explain the process of setting up a personal budget in 8-10 steps, detailing each step thoroughly</t>
   </si>
@@ -46,16 +46,19 @@
     <t>reference</t>
   </si>
   <si>
-    <t>image</t>
-  </si>
-  <si>
-    <t>https://tse2.mm.bing.net/th?id=OIP.EaVT7v-r3f5vS_gUDj1S5AHaE7&amp;pid=Api&amp;P=0&amp;h=180</t>
-  </si>
-  <si>
     <t>https://tse2.mm.bing.net/th?id=OIP.dfoZsLqr5C6sRKERVV9R_wHaE8&amp;pid=Api&amp;P=0&amp;h=180</t>
   </si>
   <si>
-    <t>1 Assess your financial situation by gathering all financial information including income, expenses, debts, and savings. 2 Determine your financial goals, both short-term and long-term.3 Calculate your total income from all sources.4 Track your expenses by categorizing them into essentials and non-essentials.5 Create a budget allocating funds to cover essential expenses while saving towards your goals.6 Identify areas where you can reduce expenses to align with your budget.7 Regularly monitor your budget to track progress and make adjustments as needed.8 Allocate a portion of your income towards savings and investments.9 Seek professional advice if needed, especially for complex financial situations.</t>
+    <t>1 Assess your financial situation by gathering all financial information including income, expenses, debts, and savings* 2 Determine your financial goals, both short-term and long-term*3 Calculate your total income from all sources*4 Track your expenses by categorizing them into essentials and non-essentials.5 Create a budget allocating funds to cover essential expenses while saving towards your goals.6 Identify areas where you can reduce expenses to align with your budget.7 Regularly monitor your budget to track progress and make adjustments as needed.8 Allocate a portion of your income towards savings and investments.9 Seek professional advice if needed, especially for complex financial situations.</t>
+  </si>
+  <si>
+    <t>communication_tips</t>
+  </si>
+  <si>
+    <t>Not Applicable</t>
+  </si>
+  <si>
+    <t>HTML/Class/Navbar   https://www.google.com/</t>
   </si>
 </sst>
 </file>
@@ -400,8 +403,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -426,7 +429,7 @@
         <v>7</v>
       </c>
       <c r="E1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
@@ -437,13 +440,13 @@
         <v>0</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" t="s">
         <v>11</v>
-      </c>
-      <c r="D2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -460,10 +463,11 @@
         <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>